--- a/VSCode/Automatically Set Posting Period/Test/atdd.scenarios/ATDD Scenarios - Automatically Set Posting Period.xlsx
+++ b/VSCode/Automatically Set Posting Period/Test/atdd.scenarios/ATDD Scenarios - Automatically Set Posting Period.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanvugt\source\repos\Test-Automation-Examples\VSCode\Automatically Set Posting Period\Test\atdd.scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\Test-Automation-Examples\VSCode\Automatically Set Posting Period\Test\atdd.scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B8FC6-AA33-4D8E-8F3C-BB63CBC77D03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7865038B-5726-4AA5-9FBF-3BE404C3FEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB99ADC0-1D36-4CB0-890F-ABAEDD9356F9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{DB99ADC0-1D36-4CB0-890F-ABAEDD9356F9}"/>
   </bookViews>
   <sheets>
     <sheet name="ATDD Scenarios" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1431,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B1ED69-5F96-4A81-993F-0E906F475813}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1521,7 @@
       </c>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="30.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>Given 'Accounting periods for current fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>Given 'Accounting periods for next fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>When 'Disable "Use Next Period" on Request Page'</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1668,7 +1671,7 @@
         <v>Then '"Current Accounting Period" equals start date of current accounting period'</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>Then '"Starting Date" equals first date of current accounting period'</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>Then '"Ending Date" equals first date of next accounting period minus one day' }</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>Scenario 0002 'Set "Starting Date"  and "Ending Date" for next period' {</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>Given 'Accounting periods for current fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>Given 'Accounting periods for next fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="13" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>When 'Enable "Use Next Period" on Request Page'</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>Then '"Current Accounting Period" equals start date of current accounting period'</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>Then '"Starting Date" equals first date of next accounting period'</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>Then '"Ending Date" equals first date of accounting period after next account period minus one day' }</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>Scenario 0003 'Set "Starting Date" and "Ending Date" for non-existing next accounting period' {</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>Given 'No next accounting period related to system date'</v>
       </c>
     </row>
-    <row r="19" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>When 'Open request page'</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>Then 'Error on non-existing next accounting period' } }</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
@@ -2087,7 +2090,7 @@
       </c>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="30.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>Scenario 0004 'Update G/L Setup with "Use Next Period" on Request Page disabled' {</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>Given 'Accounting periods for current fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>Given 'Accounting periods for next fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="25" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>Given 'Disable "Use Next Period" on Request Page'</v>
       </c>
     </row>
-    <row r="26" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>When 'Run batch report'</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>Then '"Allow Posting From" on G/L Setup equals first date of current accounting period'</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>Then '"Allow Posting to" on G/L Setup equals first date of next accounting period minus one day' }</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>Scenario 0005 'Update G/L Setup with "Use Next Period" on Request Page enabled' {</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>Given 'Accounting periods for current fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>Given 'Accounting periods for next fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="32" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>Given 'Enable "Use Next Period" on Request Page'</v>
       </c>
     </row>
-    <row r="33" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>When 'Run batch report'</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>Then '"Allow Posting From" on G/L Setup equals first date of next accounting period'</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>Then '"Allow Posting to" on G/L Setup equals first date of accounting period after next account period minus one day' } }</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>14</v>
       </c>
@@ -2500,7 +2503,7 @@
       </c>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" ht="45.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>Scenario 0006 'Update Four User Setup records with "Automatic Update Posting Period" enabled and "Use Next Period" on Request Page enabled' {</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>Given 'Accounting periods for current fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>Given 'Accounting periods for next fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>Given 'Four User Setup records with "Automatic Update Posting Period" enabled'</v>
       </c>
     </row>
-    <row r="41" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>Given 'Enable "Use Next Period" on Request Page'</v>
       </c>
     </row>
-    <row r="42" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>When 'Run batch report'</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="38.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="38.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>Then '"Allow Posting From" on all User Setup records equals first date of current accounting period'</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>Then '"Allow Posting to" on all User Setup records equals first date of next accounting period minus one day' }</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>14</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>Scenario 0007 'Update Four User Setup records with "Automatic Update Posting Period" enabled and "Use Next Period" on Request Page disabled' {</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>Given 'Accounting periods for current fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>14</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>Given 'Accounting periods for next fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="F48" t="s">
@@ -2827,7 +2830,7 @@
         <v>Given 'Four User Setup records with "Automatic Update Posting Period" enabled'</v>
       </c>
     </row>
-    <row r="49" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>Given 'Disable "Use Next Period" on Request Page'</v>
       </c>
     </row>
-    <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>14</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>When 'Run batch report'</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="39.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="39.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>Then '"Allow Posting From" on all User Setup records equals first date of next accounting period'</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>14</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>Then '"Allow Posting to" on all User Setup records equals first date of accounting period after next account period minus one day' }</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>Scenario 0008 'Update Four User Setup records with "Automatic Update Posting Period" disabled' {</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>Given 'Accounting periods for current fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>14</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>Given 'Accounting periods for next fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="F56" t="s">
@@ -3045,7 +3048,7 @@
         <v>Given 'Four User Setup records with "Automatic Update Posting Period" disabled'</v>
       </c>
     </row>
-    <row r="57" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>Given 'Enable "Use Next Period" on Request Page'</v>
       </c>
     </row>
-    <row r="58" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>14</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>When 'Run batch report'</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>14</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>Then '"Allow Posting From" on all User Setup records is empty'</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>14</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>Then '"Allow Posting to" on all User Setup records is empty' }</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>14</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>Scenario 0009 'Update Four User Setup records with " Automatic Update Posting Period" alternatingly enabled and disabled' {</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>14</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>Given 'Accounting periods for current fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>14</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>Given 'Accounting periods for next fiscal year related to system date'</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>14</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>Given 'First User Setup record with "Automatic Update Posting Period" enabled'</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>14</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>Given 'Second User Setup record with "Automatic Update Posting Period" disabled'</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>14</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>Given 'Third User Setup record with "Automatic Update Posting Period" enabled'</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>14</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>Given 'Fourth User Setup record with "Automatic Update Posting Period" disabled'</v>
       </c>
     </row>
-    <row r="68" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>14</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>Given 'Disable "Use Next Period" on Request Page'</v>
       </c>
     </row>
-    <row r="69" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>14</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>When 'Run batch report'</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>14</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>Then '"Allow Posting From" on first and third User Setup records equals first date of current accounting period'</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>14</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>Then '"Allow Posting to" on first and third User Setup records equals first date of next accounting period minus one day'</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>14</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>Then '"Allow Posting From" on second and fourth User Setup records is empty'</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>14</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>Then '"Allow Posting to" on second and fourth User Setup records is empty' }</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="39.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="39.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>Scenario 0010 'Check "Automatic Update Posting Period" field exists on User Setup and is editable' {</v>
       </c>
     </row>
-    <row r="75" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>14</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>Given 'User Setup'</v>
       </c>
     </row>
-    <row r="76" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>When 'Opening User Setup page in edit mode'</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -3635,6 +3638,7 @@
         <v>Then '"Automatic Update Posting Period" field is editable' } }</v>
       </c>
     </row>
+    <row r="78" spans="1:11" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="colorScale" priority="124">

--- a/VSCode/Automatically Set Posting Period/Test/atdd.scenarios/ATDD Scenarios - Automatically Set Posting Period.xlsx
+++ b/VSCode/Automatically Set Posting Period/Test/atdd.scenarios/ATDD Scenarios - Automatically Set Posting Period.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\Test-Automation-Examples\VSCode\Automatically Set Posting Period\Test\atdd.scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvvugt\source\repos\Test-Automation-Examples\VSCode\Automatically Set Posting Period\Test\atdd.scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7865038B-5726-4AA5-9FBF-3BE404C3FEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B3758D-77F8-43AF-BCFE-3C2DD5A8AD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{DB99ADC0-1D36-4CB0-890F-ABAEDD9356F9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DB99ADC0-1D36-4CB0-890F-ABAEDD9356F9}"/>
   </bookViews>
   <sheets>
     <sheet name="ATDD Scenarios" sheetId="1" r:id="rId1"/>
@@ -99,12 +99,6 @@
     <t>Enable "Use Next Period" on Request Page</t>
   </si>
   <si>
-    <t>Set "Starting Date"  and "Ending Date" for current period</t>
-  </si>
-  <si>
-    <t>Set "Starting Date"  and "Ending Date" for next period</t>
-  </si>
-  <si>
     <t>UI testing using a RequestPageHandler</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>Update G/L Setup with "Use Next Period" on Request Page disabled</t>
+  </si>
+  <si>
+    <t>Set "Starting Date" and "Ending Date" for next period</t>
+  </si>
+  <si>
+    <t>Set "Starting Date" and "Ending Date" for current period</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -1504,7 +1504,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="11"/>
       <c r="G2" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="11" t="str">
@@ -1530,25 +1530,25 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="str">
         <f>IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table2[[#This Row],[Feature]],"/",Table2[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table2[[#This Row],[Scenario '#]],"0000"),"] ",Table2[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table2[[#This Row],[Given-When-Then (Tag)]]),"] ",Table2[[#This Row],[Given-When-Then (Description)]]))</f>
-        <v>[SCENARIO #0001] Set "Starting Date"  and "Ending Date" for current period</v>
+        <v>[SCENARIO #0001] Set "Starting Date" and "Ending Date" for current period</v>
       </c>
       <c r="J3" s="7" t="str">
         <f>_xlfn.CONCAT("//",Table2[[#This Row],[ATDD Format]])</f>
-        <v>//[SCENARIO #0001] Set "Starting Date"  and "Ending Date" for current period</v>
+        <v>//[SCENARIO #0001] Set "Starting Date" and "Ending Date" for current period</v>
       </c>
       <c r="K3" s="19" t="str">
         <f ca="1">IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",IF(Table2[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table2[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table2[[#This Row],[Scenario '#]],"0000")," '",Table2[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
-        <v>Scenario 0001 'Set "Starting Date"  and "Ending Date" for current period' {</v>
+        <v>Scenario 0001 'Set "Starting Date" and "Ending Date" for current period' {</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -1740,22 +1740,22 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H10" s="5">
         <v>2</v>
       </c>
       <c r="I10" s="6" t="str">
         <f>IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table2[[#This Row],[Feature]],"/",Table2[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table2[[#This Row],[Scenario '#]],"0000"),"] ",Table2[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table2[[#This Row],[Given-When-Then (Tag)]]),"] ",Table2[[#This Row],[Given-When-Then (Description)]]))</f>
-        <v>[SCENARIO #0002] Set "Starting Date"  and "Ending Date" for next period</v>
+        <v>[SCENARIO #0002] Set "Starting Date" and "Ending Date" for next period</v>
       </c>
       <c r="J10" s="7" t="str">
         <f>_xlfn.CONCAT("//",Table2[[#This Row],[ATDD Format]])</f>
-        <v>//[SCENARIO #0002] Set "Starting Date"  and "Ending Date" for next period</v>
+        <v>//[SCENARIO #0002] Set "Starting Date" and "Ending Date" for next period</v>
       </c>
       <c r="K10" s="19" t="str">
         <f ca="1">IF(Table2[[#This Row],[Given-When-Then (Tag)]]="",IF(Table2[[#This Row],[Scenario]]="",IF(Table2[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table2[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table2[[#This Row],[Scenario '#]],"0000")," '",Table2[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table2[[#This Row],[Given-When-Then (Tag)]]," '",Table2[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
-        <v>Scenario 0002 'Set "Starting Date"  and "Ending Date" for next period' {</v>
+        <v>Scenario 0002 'Set "Starting Date" and "Ending Date" for next period' {</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
@@ -1800,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" s="5">
         <v>2</v>
@@ -1860,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
@@ -1890,7 +1890,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
@@ -1920,7 +1920,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
@@ -1949,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H17" s="5">
         <v>3</v>
@@ -1981,7 +1981,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H18" s="5">
         <v>3</v>
@@ -2013,7 +2013,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H19" s="5">
         <v>3</v>
@@ -2045,7 +2045,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H20" s="5">
         <v>3</v>
@@ -2073,7 +2073,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="16"/>
       <c r="G21" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="17" t="str">
@@ -2097,7 +2097,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" s="5">
         <v>4</v>
@@ -2125,7 +2125,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23" s="5">
         <v>4</v>
@@ -2153,7 +2153,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H24" s="5">
         <v>4</v>
@@ -2209,7 +2209,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26" s="5">
         <v>4</v>
@@ -2237,7 +2237,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H27" s="5">
         <v>4</v>
@@ -2265,7 +2265,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H28" s="5">
         <v>4</v>
@@ -2290,7 +2290,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H29" s="5">
         <v>5</v>
@@ -2318,7 +2318,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H30" s="5">
         <v>5</v>
@@ -2346,7 +2346,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H31" s="5">
         <v>5</v>
@@ -2402,7 +2402,7 @@
         <v>17</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H33" s="5">
         <v>5</v>
@@ -2430,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H34" s="5">
         <v>5</v>
@@ -2458,7 +2458,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H35" s="5">
         <v>5</v>
@@ -2486,7 +2486,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="16"/>
       <c r="G36" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="17" t="str">
@@ -2510,7 +2510,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H37" s="5">
         <v>6</v>
@@ -2538,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H38" s="5">
         <v>6</v>
@@ -2566,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H39" s="5">
         <v>6</v>
@@ -2594,7 +2594,7 @@
         <v>16</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H40" s="5">
         <v>6</v>
@@ -2650,7 +2650,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H42" s="5">
         <v>6</v>
@@ -2678,7 +2678,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H43" s="5">
         <v>6</v>
@@ -2706,7 +2706,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H44" s="5">
         <v>6</v>
@@ -2731,7 +2731,7 @@
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H45" s="5">
         <v>7</v>
@@ -2759,7 +2759,7 @@
         <v>16</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H46" s="5">
         <v>7</v>
@@ -2787,7 +2787,7 @@
         <v>16</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H47" s="5">
         <v>7</v>
@@ -2812,7 +2812,7 @@
         <v>16</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H48" s="5">
         <v>7</v>
@@ -2868,7 +2868,7 @@
         <v>17</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50" s="5">
         <v>7</v>
@@ -2896,7 +2896,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H51" s="5">
         <v>7</v>
@@ -2924,7 +2924,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H52" s="5">
         <v>7</v>
@@ -2977,7 +2977,7 @@
         <v>16</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H54" s="5">
         <v>8</v>
@@ -3005,7 +3005,7 @@
         <v>16</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H55" s="5">
         <v>8</v>
@@ -3030,7 +3030,7 @@
         <v>16</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H56" s="5">
         <v>8</v>
@@ -3086,7 +3086,7 @@
         <v>17</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H58" s="5">
         <v>8</v>
@@ -3114,7 +3114,7 @@
         <v>18</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H59" s="5">
         <v>8</v>
@@ -3142,7 +3142,7 @@
         <v>18</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H60" s="5">
         <v>8</v>
@@ -3167,7 +3167,7 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H61" s="5">
         <v>9</v>
@@ -3195,7 +3195,7 @@
         <v>16</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H62" s="5">
         <v>9</v>
@@ -3223,7 +3223,7 @@
         <v>16</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H63" s="5">
         <v>9</v>
@@ -3251,7 +3251,7 @@
         <v>16</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H64" s="5">
         <v>9</v>
@@ -3279,7 +3279,7 @@
         <v>16</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H65" s="5">
         <v>9</v>
@@ -3307,7 +3307,7 @@
         <v>16</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H66" s="5">
         <v>9</v>
@@ -3335,7 +3335,7 @@
         <v>16</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H67" s="5">
         <v>9</v>
@@ -3391,7 +3391,7 @@
         <v>17</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H69" s="5">
         <v>9</v>
@@ -3419,7 +3419,7 @@
         <v>18</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H70" s="5">
         <v>9</v>
@@ -3447,7 +3447,7 @@
         <v>18</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H71" s="5">
         <v>9</v>
@@ -3475,7 +3475,7 @@
         <v>18</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H72" s="5">
         <v>9</v>
@@ -3503,7 +3503,7 @@
         <v>18</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H73" s="5">
         <v>9</v>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H74" s="5">
         <v>10</v>
@@ -3590,7 +3590,7 @@
         <v>17</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H76" s="5">
         <v>10</v>
@@ -3620,7 +3620,7 @@
         <v>18</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H77" s="5">
         <v>10</v>
